--- a/fantasy-file/checklist.xlsx
+++ b/fantasy-file/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/fantasy-file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A023DF-9C6A-134A-BCCF-D4C5796D3A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74001DED-EADB-C14E-8298-0241C8364AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{E5AEC0A0-1D25-3F4F-A8D5-50372A80A5C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
   <si>
     <t>year</t>
   </si>
@@ -270,6 +270,120 @@
   </si>
   <si>
     <t>Game Seeds</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>monster_collection.jpg</t>
+  </si>
+  <si>
+    <t>dnd_yoku_wakaru.jpg</t>
+  </si>
+  <si>
+    <t>horror_collection.jpg</t>
+  </si>
+  <si>
+    <t>spell_collection.jpg</t>
+  </si>
+  <si>
+    <t>item_collection.jpg</t>
+  </si>
+  <si>
+    <t>fantasy_rpg_quiz.jpg</t>
+  </si>
+  <si>
+    <t>kuros_rpg_1001_nights_1.jpg</t>
+  </si>
+  <si>
+    <t>trap_collection.jpg</t>
+  </si>
+  <si>
+    <t>kuros_rpg_1001_nights_2.jpg</t>
+  </si>
+  <si>
+    <t>kuros_rpg_1001_nights_3.jpg</t>
+  </si>
+  <si>
+    <t>character_collection_up.jpg</t>
+  </si>
+  <si>
+    <t>character_collection_down.jpg</t>
+  </si>
+  <si>
+    <t>i_really_like_rpgs.jpg</t>
+  </si>
+  <si>
+    <t>100_common_sense.jpg</t>
+  </si>
+  <si>
+    <t>but_i_still_like_rpgs.jpg</t>
+  </si>
+  <si>
+    <t>practice_rpg_gamemaster_way.jpg</t>
+  </si>
+  <si>
+    <t>dungeon_cinematic.jpg</t>
+  </si>
+  <si>
+    <t>fantasy_rpg_quiz_2.jpg</t>
+  </si>
+  <si>
+    <t>fantasy_rpg_quiz_3.jpg</t>
+  </si>
+  <si>
+    <t>kuros_rpg_1001_nights_4.jpg</t>
+  </si>
+  <si>
+    <t>city_collection_up.jpg</t>
+  </si>
+  <si>
+    <t>city_collection_down.jpg</t>
+  </si>
+  <si>
+    <t>battletech_yoku_wakaru.jpg</t>
+  </si>
+  <si>
+    <t>fnatasy_rpg_quiz_4.jpg</t>
+  </si>
+  <si>
+    <t>100_common_sense_items.jpg</t>
+  </si>
+  <si>
+    <t>100_fantasy_rpg_treasures.jpg</t>
+  </si>
+  <si>
+    <t>girls_want_to_play_rpgs_too.jpg</t>
+  </si>
+  <si>
+    <t>rpg_master_easy_reader.jpg</t>
+  </si>
+  <si>
+    <t>game_seeds.jpg</t>
+  </si>
+  <si>
+    <t>monster_collection_down.jpg</t>
+  </si>
+  <si>
+    <t>monster_collection_up.jpg</t>
+  </si>
+  <si>
+    <t>monster_collection_middle.jpg</t>
+  </si>
+  <si>
+    <t>mistake_dictionary_for_rpg.jpg</t>
+  </si>
+  <si>
+    <t>wares_blade_yoku_wakaru.jpg</t>
+  </si>
+  <si>
+    <t>blue_forest_story_yoku_wakaru.jpg</t>
+  </si>
+  <si>
+    <t>shadowrun_yoku_wakaru.jpg</t>
+  </si>
+  <si>
+    <t>kuros_rpg_kenbunroku.jpg</t>
   </si>
 </sst>
 </file>
@@ -636,20 +750,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C3CF34-BE94-804A-8259-9F58E98E2002}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" customWidth="1"/>
     <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,8 +778,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1986</v>
       </c>
@@ -676,8 +795,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1987</v>
       </c>
@@ -690,8 +812,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1987</v>
       </c>
@@ -701,8 +826,14 @@
       <c r="C4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1988</v>
       </c>
@@ -715,8 +846,11 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1988</v>
       </c>
@@ -726,8 +860,14 @@
       <c r="C6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1989</v>
       </c>
@@ -740,8 +880,11 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1989</v>
       </c>
@@ -754,8 +897,11 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1989</v>
       </c>
@@ -768,8 +914,11 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1989</v>
       </c>
@@ -782,8 +931,11 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1990</v>
       </c>
@@ -796,8 +948,11 @@
       <c r="D11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1991</v>
       </c>
@@ -810,8 +965,11 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1991</v>
       </c>
@@ -824,8 +982,11 @@
       <c r="D13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1991</v>
       </c>
@@ -838,8 +999,11 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1992</v>
       </c>
@@ -852,8 +1016,11 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1992</v>
       </c>
@@ -866,8 +1033,11 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -880,8 +1050,11 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -894,8 +1067,11 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1993</v>
       </c>
@@ -908,8 +1084,11 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1993</v>
       </c>
@@ -922,8 +1101,11 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1993</v>
       </c>
@@ -936,8 +1118,11 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1993</v>
       </c>
@@ -950,8 +1135,11 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1993</v>
       </c>
@@ -964,8 +1152,11 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1993</v>
       </c>
@@ -978,8 +1169,11 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1993</v>
       </c>
@@ -992,8 +1186,11 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1993</v>
       </c>
@@ -1006,8 +1203,11 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1993</v>
       </c>
@@ -1020,8 +1220,11 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1994</v>
       </c>
@@ -1034,8 +1237,11 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1994</v>
       </c>
@@ -1048,8 +1254,11 @@
       <c r="D29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1994</v>
       </c>
@@ -1062,8 +1271,11 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1994</v>
       </c>
@@ -1076,8 +1288,11 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1995</v>
       </c>
@@ -1090,8 +1305,11 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1995</v>
       </c>
@@ -1104,8 +1322,11 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1995</v>
       </c>
@@ -1118,8 +1339,11 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1996</v>
       </c>
@@ -1132,8 +1356,11 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1996</v>
       </c>
@@ -1146,8 +1373,11 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1996</v>
       </c>
@@ -1160,8 +1390,11 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1997</v>
       </c>
@@ -1173,6 +1406,9 @@
       </c>
       <c r="D38" t="s">
         <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/fantasy-file/checklist.xlsx
+++ b/fantasy-file/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/fantasy-file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74001DED-EADB-C14E-8298-0241C8364AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AA7569B3-015C-0E44-9B59-1C0F5B881ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{E5AEC0A0-1D25-3F4F-A8D5-50372A80A5C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -344,9 +344,6 @@
     <t>battletech_yoku_wakaru.jpg</t>
   </si>
   <si>
-    <t>fnatasy_rpg_quiz_4.jpg</t>
-  </si>
-  <si>
     <t>100_common_sense_items.jpg</t>
   </si>
   <si>
@@ -384,6 +381,9 @@
   </si>
   <si>
     <t>kuros_rpg_kenbunroku.jpg</t>
+  </si>
+  <si>
+    <t>fantasy_rpg_quiz_4.jpg</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -915,7 +915,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1238,7 +1238,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1255,7 +1255,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1272,7 +1272,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1289,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1306,7 +1306,7 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1323,7 +1323,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1340,7 +1340,7 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1357,7 +1357,7 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1374,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1391,7 +1391,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1408,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/fantasy-file/checklist.xlsx
+++ b/fantasy-file/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/fantasy-file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AA7569B3-015C-0E44-9B59-1C0F5B881ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F821670-A623-D645-B539-EC04A51EE0D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{E5AEC0A0-1D25-3F4F-A8D5-50372A80A5C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="120">
   <si>
     <t>year</t>
   </si>
@@ -384,6 +384,15 @@
   </si>
   <si>
     <t>fantasy_rpg_quiz_4.jpg</t>
+  </si>
+  <si>
+    <t>TOKYO EYE‐SHOT シャドウランシティファイル</t>
+  </si>
+  <si>
+    <t>Tokyo Eye Shot: Shadowrun City File</t>
+  </si>
+  <si>
+    <t>shadowrun_tokyo_eye_shot.jpg</t>
   </si>
 </sst>
 </file>
@@ -750,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C3CF34-BE94-804A-8259-9F58E98E2002}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1345,19 +1354,19 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1365,16 +1374,16 @@
         <v>1996</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1382,38 +1391,55 @@
         <v>1996</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
+        <v>1996</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>1997</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>5</v>
       </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
-    <sortCondition ref="A2:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fantasy-file/checklist.xlsx
+++ b/fantasy-file/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/fantasy-file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F821670-A623-D645-B539-EC04A51EE0D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E087E9D-4300-B047-91FE-7CDAC941EB13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{E5AEC0A0-1D25-3F4F-A8D5-50372A80A5C2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{E5AEC0A0-1D25-3F4F-A8D5-50372A80A5C2}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="123">
   <si>
     <t>year</t>
   </si>
@@ -393,6 +393,15 @@
   </si>
   <si>
     <t>shadowrun_tokyo_eye_shot.jpg</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>replay</t>
   </si>
 </sst>
 </file>
@@ -759,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C3CF34-BE94-804A-8259-9F58E98E2002}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,7 +783,7 @@
     <col min="5" max="5" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,8 +799,11 @@
       <c r="E1" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1986</v>
       </c>
@@ -807,8 +819,11 @@
       <c r="E2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1987</v>
       </c>
@@ -824,8 +839,11 @@
       <c r="E3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1987</v>
       </c>
@@ -841,8 +859,11 @@
       <c r="E4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1988</v>
       </c>
@@ -858,8 +879,11 @@
       <c r="E5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1988</v>
       </c>
@@ -875,8 +899,11 @@
       <c r="E6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1989</v>
       </c>
@@ -892,8 +919,11 @@
       <c r="E7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1989</v>
       </c>
@@ -909,8 +939,11 @@
       <c r="E8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1989</v>
       </c>
@@ -926,8 +959,11 @@
       <c r="E9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1989</v>
       </c>
@@ -943,8 +979,11 @@
       <c r="E10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1990</v>
       </c>
@@ -960,8 +999,11 @@
       <c r="E11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1991</v>
       </c>
@@ -977,8 +1019,11 @@
       <c r="E12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1991</v>
       </c>
@@ -994,8 +1039,11 @@
       <c r="E13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1991</v>
       </c>
@@ -1011,8 +1059,11 @@
       <c r="E14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1992</v>
       </c>
@@ -1028,8 +1079,11 @@
       <c r="E15" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1992</v>
       </c>
@@ -1045,8 +1099,11 @@
       <c r="E16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -1062,8 +1119,11 @@
       <c r="E17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -1079,8 +1139,11 @@
       <c r="E18" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1993</v>
       </c>
@@ -1096,8 +1159,11 @@
       <c r="E19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1993</v>
       </c>
@@ -1113,8 +1179,11 @@
       <c r="E20" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1993</v>
       </c>
@@ -1130,8 +1199,11 @@
       <c r="E21" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1993</v>
       </c>
@@ -1147,8 +1219,11 @@
       <c r="E22" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1993</v>
       </c>
@@ -1164,8 +1239,11 @@
       <c r="E23" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1993</v>
       </c>
@@ -1181,8 +1259,11 @@
       <c r="E24" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1993</v>
       </c>
@@ -1198,8 +1279,11 @@
       <c r="E25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1993</v>
       </c>
@@ -1215,8 +1299,11 @@
       <c r="E26" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1993</v>
       </c>
@@ -1232,8 +1319,11 @@
       <c r="E27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1994</v>
       </c>
@@ -1249,8 +1339,11 @@
       <c r="E28" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1994</v>
       </c>
@@ -1266,8 +1359,11 @@
       <c r="E29" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1994</v>
       </c>
@@ -1283,8 +1379,11 @@
       <c r="E30" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1994</v>
       </c>
@@ -1300,8 +1399,11 @@
       <c r="E31" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1995</v>
       </c>
@@ -1317,8 +1419,11 @@
       <c r="E32" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1995</v>
       </c>
@@ -1334,8 +1439,11 @@
       <c r="E33" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1995</v>
       </c>
@@ -1351,8 +1459,11 @@
       <c r="E34" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1995</v>
       </c>
@@ -1368,8 +1479,11 @@
       <c r="E35" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1996</v>
       </c>
@@ -1385,8 +1499,11 @@
       <c r="E36" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1996</v>
       </c>
@@ -1402,8 +1519,11 @@
       <c r="E37" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1996</v>
       </c>
@@ -1419,8 +1539,11 @@
       <c r="E38" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1997</v>
       </c>
@@ -1435,6 +1558,9 @@
       </c>
       <c r="E39" t="s">
         <v>111</v>
+      </c>
+      <c r="F39" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/fantasy-file/checklist.xlsx
+++ b/fantasy-file/checklist.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/fantasy-file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E087E9D-4300-B047-91FE-7CDAC941EB13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502E3B10-DB4B-3B40-8170-9933E381852F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{E5AEC0A0-1D25-3F4F-A8D5-50372A80A5C2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{E5AEC0A0-1D25-3F4F-A8D5-50372A80A5C2}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="161">
   <si>
     <t>year</t>
   </si>
@@ -402,6 +402,120 @@
   </si>
   <si>
     <t>replay</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>7-15</t>
+  </si>
+  <si>
+    <t>7-25</t>
+  </si>
+  <si>
+    <t>7-29</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>7-11</t>
+  </si>
+  <si>
+    <t>7-12</t>
+  </si>
+  <si>
+    <t>7-17</t>
+  </si>
+  <si>
+    <t>7-18</t>
+  </si>
+  <si>
+    <t>7-16</t>
+  </si>
+  <si>
+    <t>7-33</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>7-34</t>
+  </si>
+  <si>
+    <t>7-35</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>7-10</t>
+  </si>
+  <si>
+    <t>7-14</t>
+  </si>
+  <si>
+    <t>7-28</t>
+  </si>
+  <si>
+    <t>7-9</t>
+  </si>
+  <si>
+    <t>7-13</t>
+  </si>
+  <si>
+    <t>7-19</t>
+  </si>
+  <si>
+    <t>7-20</t>
+  </si>
+  <si>
+    <t>7-21</t>
+  </si>
+  <si>
+    <t>7-24</t>
+  </si>
+  <si>
+    <t>7-22</t>
+  </si>
+  <si>
+    <t>7-23</t>
+  </si>
+  <si>
+    <t>7-37</t>
+  </si>
+  <si>
+    <t>7-36</t>
+  </si>
+  <si>
+    <t>7-32</t>
+  </si>
+  <si>
+    <t>7-31</t>
+  </si>
+  <si>
+    <t>7-30</t>
+  </si>
+  <si>
+    <t>7-27</t>
+  </si>
+  <si>
+    <t>7-26</t>
   </si>
 </sst>
 </file>
@@ -451,9 +565,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C3CF34-BE94-804A-8259-9F58E98E2002}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -781,9 +896,10 @@
     <col min="3" max="3" width="49.33203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="33.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,8 +918,11 @@
       <c r="F1" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1986</v>
       </c>
@@ -822,8 +941,11 @@
       <c r="F2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1987</v>
       </c>
@@ -842,8 +964,11 @@
       <c r="F3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1987</v>
       </c>
@@ -862,8 +987,11 @@
       <c r="F4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1988</v>
       </c>
@@ -882,8 +1010,11 @@
       <c r="F5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1988</v>
       </c>
@@ -902,88 +1033,103 @@
       <c r="F6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1989</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1989</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1989</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1989</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1990</v>
       </c>
@@ -1002,488 +1148,563 @@
       <c r="F11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1991</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1991</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>1992</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>1991</v>
       </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1992</v>
-      </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1992</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1993</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1993</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1993</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1993</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1993</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1993</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1993</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1993</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1993</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1994</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1994</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F29" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1994</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1994</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1995</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1995</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F34" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F35" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1996</v>
       </c>
@@ -1502,71 +1723,78 @@
       <c r="F36" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F37" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F39" t="s">
         <v>121</v>
       </c>
+      <c r="G39" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
-    <sortCondition ref="A2:A39"/>
-  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fantasy-file/checklist.xlsx
+++ b/fantasy-file/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/fantasy-file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502E3B10-DB4B-3B40-8170-9933E381852F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F22C8DE-5820-734B-ACD0-A695DA7F3BE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{E5AEC0A0-1D25-3F4F-A8D5-50372A80A5C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="158">
   <si>
     <t>year</t>
   </si>
@@ -384,15 +384,6 @@
   </si>
   <si>
     <t>fantasy_rpg_quiz_4.jpg</t>
-  </si>
-  <si>
-    <t>TOKYO EYE‐SHOT シャドウランシティファイル</t>
-  </si>
-  <si>
-    <t>Tokyo Eye Shot: Shadowrun City File</t>
-  </si>
-  <si>
-    <t>shadowrun_tokyo_eye_shot.jpg</t>
   </si>
   <si>
     <t>product_type</t>
@@ -883,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C3CF34-BE94-804A-8259-9F58E98E2002}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,10 +907,10 @@
         <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -939,10 +930,10 @@
         <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -962,10 +953,10 @@
         <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -985,10 +976,10 @@
         <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1008,10 +999,10 @@
         <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1031,10 +1022,10 @@
         <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1054,10 +1045,10 @@
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1077,10 +1068,10 @@
         <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1100,10 +1091,10 @@
         <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1123,10 +1114,10 @@
         <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1146,10 +1137,10 @@
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1169,10 +1160,10 @@
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1192,10 +1183,10 @@
         <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1215,10 +1206,10 @@
         <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1238,10 +1229,10 @@
         <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1261,10 +1252,10 @@
         <v>97</v>
       </c>
       <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1284,10 +1275,10 @@
         <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1307,10 +1298,10 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1330,10 +1321,10 @@
         <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1353,10 +1344,10 @@
         <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1376,10 +1367,10 @@
         <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1399,10 +1390,10 @@
         <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1422,10 +1413,10 @@
         <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1445,10 +1436,10 @@
         <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1468,10 +1459,10 @@
         <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1491,10 +1482,10 @@
         <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1514,10 +1505,10 @@
         <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1537,10 +1528,10 @@
         <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1560,10 +1551,10 @@
         <v>114</v>
       </c>
       <c r="F29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1583,10 +1574,10 @@
         <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1606,10 +1597,10 @@
         <v>103</v>
       </c>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1629,10 +1620,10 @@
         <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1652,10 +1643,10 @@
         <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1675,10 +1666,10 @@
         <v>109</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1698,10 +1689,10 @@
         <v>110</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1721,10 +1712,10 @@
         <v>108</v>
       </c>
       <c r="F36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1744,10 +1735,10 @@
         <v>107</v>
       </c>
       <c r="F37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1767,32 +1758,11 @@
         <v>111</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1995</v>
-      </c>
-      <c r="B39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
